--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 10/NKSX_38TB_TG102LE4G_UGR_131025.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 10/NKSX_38TB_TG102LE4G_UGR_131025.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Nhập kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA7358-4440-4E81-9DE9-6B376C13B711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DEE7FD-77DB-4944-B6F1-5E27C8054DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
+    <sheet name="DS IMEI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$M$17</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -107,6 +108,120 @@
   </si>
   <si>
     <t>Ngày 13 Tháng 10 Năm 2025</t>
+  </si>
+  <si>
+    <t>005181052577427</t>
+  </si>
+  <si>
+    <t>005181053441037</t>
+  </si>
+  <si>
+    <t>005185070132561</t>
+  </si>
+  <si>
+    <t>005105051153726</t>
+  </si>
+  <si>
+    <t>005185070132645</t>
+  </si>
+  <si>
+    <t>005105051210807</t>
+  </si>
+  <si>
+    <t>005181052585594</t>
+  </si>
+  <si>
+    <t>005105051151506</t>
+  </si>
+  <si>
+    <t>005181052585560</t>
+  </si>
+  <si>
+    <t>005185070126837</t>
+  </si>
+  <si>
+    <t>005105051231423</t>
+  </si>
+  <si>
+    <t>005181053441011</t>
+  </si>
+  <si>
+    <t>005185070128346</t>
+  </si>
+  <si>
+    <t>005105051151241</t>
+  </si>
+  <si>
+    <t>005181052589117</t>
+  </si>
+  <si>
+    <t>005105051231381</t>
+  </si>
+  <si>
+    <t>005105051151514</t>
+  </si>
+  <si>
+    <t>005105051153742</t>
+  </si>
+  <si>
+    <t>005181052585412</t>
+  </si>
+  <si>
+    <t>005105051219162</t>
+  </si>
+  <si>
+    <t>005185070125961</t>
+  </si>
+  <si>
+    <t>005185070125789</t>
+  </si>
+  <si>
+    <t>005105051152553</t>
+  </si>
+  <si>
+    <t>005105051211144</t>
+  </si>
+  <si>
+    <t>005181052586030</t>
+  </si>
+  <si>
+    <t>005181052580322</t>
+  </si>
+  <si>
+    <t>005105051157818</t>
+  </si>
+  <si>
+    <t>005105051153619</t>
+  </si>
+  <si>
+    <t>005105051231506</t>
+  </si>
+  <si>
+    <t>005181052585339</t>
+  </si>
+  <si>
+    <t>005105051230821</t>
+  </si>
+  <si>
+    <t>005181052585198</t>
+  </si>
+  <si>
+    <t>005181053441029</t>
+  </si>
+  <si>
+    <t>005105051211102</t>
+  </si>
+  <si>
+    <t>005181052588820</t>
+  </si>
+  <si>
+    <t>005105051219345</t>
+  </si>
+  <si>
+    <t>005105051153775</t>
+  </si>
+  <si>
+    <t>005105051157800</t>
   </si>
 </sst>
 </file>
@@ -116,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -192,6 +307,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -336,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,22 +487,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,8 +517,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -833,7 +960,7 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -856,57 +983,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="19" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="27" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="27"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="27" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="27" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="27"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -952,57 +1079,57 @@
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="13">
         <v>38</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="28" t="s">
+      <c r="L8" s="25"/>
+      <c r="M8" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1022,46 +1149,46 @@
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="16"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
@@ -1139,25 +1266,25 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1170,15 +1297,6 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L17:M17"/>
@@ -1192,6 +1310,15 @@
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2" bottom="1.2" header="0" footer="0"/>
@@ -1199,4 +1326,212 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251044A4-5F29-4D3A-86F2-BDD8CC0D47C1}">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>